--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.195774666666667</v>
+        <v>0.07453733333333333</v>
       </c>
       <c r="H2">
-        <v>3.587324</v>
+        <v>0.223612</v>
       </c>
       <c r="I2">
-        <v>0.9127472585070309</v>
+        <v>0.3946997283496047</v>
       </c>
       <c r="J2">
-        <v>0.912747258507031</v>
+        <v>0.3946997283496047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>25.20909870998711</v>
+        <v>0.2576208012391111</v>
       </c>
       <c r="R2">
-        <v>226.881888389884</v>
+        <v>2.318587211152</v>
       </c>
       <c r="S2">
-        <v>0.05217318227709518</v>
+        <v>0.003884451509833217</v>
       </c>
       <c r="T2">
-        <v>0.05217318227709519</v>
+        <v>0.003884451509833216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.195774666666667</v>
+        <v>0.07453733333333333</v>
       </c>
       <c r="H3">
-        <v>3.587324</v>
+        <v>0.223612</v>
       </c>
       <c r="I3">
-        <v>0.9127472585070309</v>
+        <v>0.3946997283496047</v>
       </c>
       <c r="J3">
-        <v>0.912747258507031</v>
+        <v>0.3946997283496047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>360.6458172385004</v>
+        <v>22.48047081455022</v>
       </c>
       <c r="R3">
-        <v>3245.812355146504</v>
+        <v>202.324237330952</v>
       </c>
       <c r="S3">
-        <v>0.7463987577152796</v>
+        <v>0.338964471724824</v>
       </c>
       <c r="T3">
-        <v>0.7463987577152797</v>
+        <v>0.3389644717248239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.195774666666667</v>
+        <v>0.07453733333333333</v>
       </c>
       <c r="H4">
-        <v>3.587324</v>
+        <v>0.223612</v>
       </c>
       <c r="I4">
-        <v>0.9127472585070309</v>
+        <v>0.3946997283496047</v>
       </c>
       <c r="J4">
-        <v>0.912747258507031</v>
+        <v>0.3946997283496047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>55.16736279174179</v>
+        <v>3.438798482820889</v>
       </c>
       <c r="R4">
-        <v>496.506265125676</v>
+        <v>30.949186345388</v>
       </c>
       <c r="S4">
-        <v>0.114175318514656</v>
+        <v>0.05185080511494752</v>
       </c>
       <c r="T4">
-        <v>0.114175318514656</v>
+        <v>0.05185080511494751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.204797</v>
       </c>
       <c r="I5">
-        <v>0.05210789443620493</v>
+        <v>0.3614891878200364</v>
       </c>
       <c r="J5">
-        <v>0.05210789443620494</v>
+        <v>0.3614891878200364</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>1.439164064497444</v>
+        <v>0.2359442571568889</v>
       </c>
       <c r="R5">
-        <v>12.952476580477</v>
+        <v>2.123498314412</v>
       </c>
       <c r="S5">
-        <v>0.00297851858678008</v>
+        <v>0.003557608786019146</v>
       </c>
       <c r="T5">
-        <v>0.00297851858678008</v>
+        <v>0.003557608786019145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.204797</v>
       </c>
       <c r="I6">
-        <v>0.05210789443620493</v>
+        <v>0.3614891878200364</v>
       </c>
       <c r="J6">
-        <v>0.05210789443620494</v>
+        <v>0.3614891878200364</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>20.58893521549578</v>
@@ -818,10 +818,10 @@
         <v>185.300416939462</v>
       </c>
       <c r="S6">
-        <v>0.04261121281038906</v>
+        <v>0.3104435670528808</v>
       </c>
       <c r="T6">
-        <v>0.04261121281038907</v>
+        <v>0.3104435670528807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.204797</v>
       </c>
       <c r="I7">
-        <v>0.05210789443620493</v>
+        <v>0.3614891878200364</v>
       </c>
       <c r="J7">
-        <v>0.05210789443620494</v>
+        <v>0.3614891878200364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>3.149453575328112</v>
@@ -880,10 +880,10 @@
         <v>28.345082177953</v>
       </c>
       <c r="S7">
-        <v>0.006518163039035786</v>
+        <v>0.04748801198113655</v>
       </c>
       <c r="T7">
-        <v>0.006518163039035787</v>
+        <v>0.04748801198113654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.138128</v>
       </c>
       <c r="I8">
-        <v>0.03514484705676409</v>
+        <v>0.2438110838303588</v>
       </c>
       <c r="J8">
-        <v>0.03514484705676409</v>
+        <v>0.2438110838303588</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>0.9706629193831111</v>
+        <v>0.1591356726542222</v>
       </c>
       <c r="R8">
-        <v>8.735966274448</v>
+        <v>1.432221053888</v>
       </c>
       <c r="S8">
-        <v>0.002008900595979232</v>
+        <v>0.002399475511825137</v>
       </c>
       <c r="T8">
-        <v>0.002008900595979232</v>
+        <v>0.002399475511825137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.138128</v>
       </c>
       <c r="I9">
-        <v>0.03514484705676409</v>
+        <v>0.2438110838303588</v>
       </c>
       <c r="J9">
-        <v>0.03514484705676409</v>
+        <v>0.2438110838303588</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>13.88647511167644</v>
@@ -1004,10 +1004,10 @@
         <v>124.978276005088</v>
       </c>
       <c r="S9">
-        <v>0.02873968663151033</v>
+        <v>0.2093827010643726</v>
       </c>
       <c r="T9">
-        <v>0.02873968663151033</v>
+        <v>0.2093827010643726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.138128</v>
       </c>
       <c r="I10">
-        <v>0.03514484705676409</v>
+        <v>0.2438110838303588</v>
       </c>
       <c r="J10">
-        <v>0.03514484705676409</v>
+        <v>0.2438110838303588</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>2.124189921985778</v>
@@ -1066,10 +1066,10 @@
         <v>19.117709297872</v>
       </c>
       <c r="S10">
-        <v>0.004396259829274526</v>
+        <v>0.0320289072541611</v>
       </c>
       <c r="T10">
-        <v>0.004396259829274526</v>
+        <v>0.03202890725416109</v>
       </c>
     </row>
   </sheetData>
